--- a/empenhos_2026.xlsx
+++ b/empenhos_2026.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB217"/>
+  <dimension ref="A1:BB248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2468,7 +2468,11 @@
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>429/SMDHC/2024</t>
+        </is>
+      </c>
       <c r="AY9" t="inlineStr">
         <is>
           <t>UND</t>
@@ -2692,7 +2696,11 @@
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>018/2024/SMDHC/CPPI</t>
+        </is>
+      </c>
       <c r="AY10" t="inlineStr">
         <is>
           <t>UN</t>
@@ -2916,7 +2924,11 @@
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>TCL/002/2020/SMDHC</t>
+        </is>
+      </c>
       <c r="AY11" t="inlineStr">
         <is>
           <t>UN</t>
@@ -3140,7 +3152,11 @@
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>TCL/002/2020/SMDHC</t>
+        </is>
+      </c>
       <c r="AY12" t="inlineStr">
         <is>
           <t>UN</t>
@@ -3364,7 +3380,11 @@
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>001/2018/SMDHC/CPDDH</t>
+        </is>
+      </c>
       <c r="AY13" t="inlineStr">
         <is>
           <t>UN</t>
@@ -3588,7 +3608,11 @@
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>001/2018/SMDHC/CPDDH</t>
+        </is>
+      </c>
       <c r="AY14" t="inlineStr">
         <is>
           <t>UN</t>
@@ -3812,7 +3836,11 @@
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>018/2024/SMDHC/CPPI</t>
+        </is>
+      </c>
       <c r="AY15" t="inlineStr">
         <is>
           <t>UN</t>
@@ -4036,7 +4064,11 @@
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>007/2022/SMDHC/CPJ</t>
+        </is>
+      </c>
       <c r="AY16" t="inlineStr">
         <is>
           <t>UN</t>
@@ -4251,7 +4283,7 @@
         <v>188450.4</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>188450.4</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
@@ -4260,7 +4292,11 @@
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>019/2024/SMDHC/CPM</t>
+        </is>
+      </c>
       <c r="AY17" t="inlineStr">
         <is>
           <t>UN</t>
@@ -4475,7 +4511,7 @@
         <v>626098.27</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>626098.27</v>
       </c>
       <c r="AS18" t="n">
         <v>0</v>
@@ -4484,7 +4520,11 @@
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>019/2024/SMDHC/CPM</t>
+        </is>
+      </c>
       <c r="AY18" t="inlineStr">
         <is>
           <t>UN</t>
@@ -4708,7 +4748,11 @@
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>61/2023/SMDHC/ODH</t>
+        </is>
+      </c>
       <c r="AY19" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -4932,7 +4976,11 @@
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>61/2023/SMDHC/ODH</t>
+        </is>
+      </c>
       <c r="AY20" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -5156,7 +5204,11 @@
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>62/203/SMDHC/ODH</t>
+        </is>
+      </c>
       <c r="AY21" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -5380,7 +5432,11 @@
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>62/203/SMDHC/ODH</t>
+        </is>
+      </c>
       <c r="AY22" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -5604,7 +5660,11 @@
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>63/2023/SMDHC/ODH</t>
+        </is>
+      </c>
       <c r="AY23" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -5829,7 +5889,11 @@
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>20/24/SMDHC/CPLGBTI</t>
+        </is>
+      </c>
       <c r="AY24" t="inlineStr">
         <is>
           <t>uni</t>
@@ -6054,7 +6118,11 @@
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>20/24/SMDHC/CPLGBTI</t>
+        </is>
+      </c>
       <c r="AY25" t="inlineStr">
         <is>
           <t>uni</t>
@@ -6279,7 +6347,11 @@
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>21/24/SMDHC/CPLGBI</t>
+        </is>
+      </c>
       <c r="AY26" t="inlineStr">
         <is>
           <t>uni</t>
@@ -6504,7 +6576,11 @@
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>21/24/SMDHC/CPLGBI</t>
+        </is>
+      </c>
       <c r="AY27" t="inlineStr">
         <is>
           <t>uni</t>
@@ -6711,10 +6787,10 @@
         <v>88601.53</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>88601.53</v>
       </c>
       <c r="AP28" t="n">
-        <v>88601.53</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
         <v>0</v>
@@ -6729,7 +6805,11 @@
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>63/2023/SMDHC/ODH</t>
+        </is>
+      </c>
       <c r="AY28" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -6935,10 +7015,10 @@
         <v>1703847.67</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1703847.67</v>
       </c>
       <c r="AP29" t="n">
-        <v>1703847.67</v>
+        <v>0</v>
       </c>
       <c r="AQ29" t="n">
         <v>0</v>
@@ -6953,7 +7033,11 @@
       <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>63/2023/SMDHC/ODH</t>
+        </is>
+      </c>
       <c r="AY29" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -7178,7 +7262,11 @@
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>22/24/SMDHC/CPLGBTI</t>
+        </is>
+      </c>
       <c r="AY30" t="inlineStr">
         <is>
           <t>uni</t>
@@ -7403,7 +7491,11 @@
       <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>22/24/SMDHC/CPLGBTI</t>
+        </is>
+      </c>
       <c r="AY31" t="inlineStr">
         <is>
           <t>uni</t>
@@ -7628,7 +7720,11 @@
       <c r="AU32" t="inlineStr"/>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>23/24/SMDHC/CPLGBTI</t>
+        </is>
+      </c>
       <c r="AY32" t="inlineStr">
         <is>
           <t>uni</t>
@@ -7853,7 +7949,11 @@
       <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>23/24/SMDHC/CPLGBTI</t>
+        </is>
+      </c>
       <c r="AY33" t="inlineStr">
         <is>
           <t>uni</t>
@@ -8078,7 +8178,11 @@
       <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
       <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>24/24/SMDHC/CPLGBTI</t>
+        </is>
+      </c>
       <c r="AY34" t="inlineStr">
         <is>
           <t>uni</t>
@@ -8303,7 +8407,11 @@
       <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="inlineStr"/>
       <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>24/24/SMDHC/CPLGBTI</t>
+        </is>
+      </c>
       <c r="AY35" t="inlineStr">
         <is>
           <t>uni</t>
@@ -13908,7 +14016,11 @@
       <c r="AU60" t="inlineStr"/>
       <c r="AV60" t="inlineStr"/>
       <c r="AW60" t="inlineStr"/>
-      <c r="AX60" t="inlineStr"/>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>66/2023/SMDHC/CPIR</t>
+        </is>
+      </c>
       <c r="AY60" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -14132,7 +14244,11 @@
       <c r="AU61" t="inlineStr"/>
       <c r="AV61" t="inlineStr"/>
       <c r="AW61" t="inlineStr"/>
-      <c r="AX61" t="inlineStr"/>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>66/2023/SMDHC/CPIR</t>
+        </is>
+      </c>
       <c r="AY61" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -14356,7 +14472,11 @@
       <c r="AU62" t="inlineStr"/>
       <c r="AV62" t="inlineStr"/>
       <c r="AW62" t="inlineStr"/>
-      <c r="AX62" t="inlineStr"/>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>068/SMDHC/CPIR</t>
+        </is>
+      </c>
       <c r="AY62" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -14580,7 +14700,11 @@
       <c r="AU63" t="inlineStr"/>
       <c r="AV63" t="inlineStr"/>
       <c r="AW63" t="inlineStr"/>
-      <c r="AX63" t="inlineStr"/>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>068/SMDHC/CPIR</t>
+        </is>
+      </c>
       <c r="AY63" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -14804,7 +14928,11 @@
       <c r="AU64" t="inlineStr"/>
       <c r="AV64" t="inlineStr"/>
       <c r="AW64" t="inlineStr"/>
-      <c r="AX64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>67/2023/SMDHC/CPIR</t>
+        </is>
+      </c>
       <c r="AY64" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -15029,7 +15157,11 @@
       <c r="AU65" t="inlineStr"/>
       <c r="AV65" t="inlineStr"/>
       <c r="AW65" t="inlineStr"/>
-      <c r="AX65" t="inlineStr"/>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>67/2023/SMDHC/CPIR</t>
+        </is>
+      </c>
       <c r="AY65" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -15254,7 +15386,11 @@
       <c r="AU66" t="inlineStr"/>
       <c r="AV66" t="inlineStr"/>
       <c r="AW66" t="inlineStr"/>
-      <c r="AX66" t="inlineStr"/>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>069/2023/SMDHC/CPIR</t>
+        </is>
+      </c>
       <c r="AY66" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -15478,7 +15614,11 @@
       <c r="AU67" t="inlineStr"/>
       <c r="AV67" t="inlineStr"/>
       <c r="AW67" t="inlineStr"/>
-      <c r="AX67" t="inlineStr"/>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>069/2023/SMDHC/CPIR</t>
+        </is>
+      </c>
       <c r="AY67" t="inlineStr">
         <is>
           <t>UNI</t>
@@ -15702,7 +15842,11 @@
       <c r="AU68" t="inlineStr"/>
       <c r="AV68" t="inlineStr"/>
       <c r="AW68" t="inlineStr"/>
-      <c r="AX68" t="inlineStr"/>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>001/SMDHC/2022</t>
+        </is>
+      </c>
       <c r="AY68" t="inlineStr">
         <is>
           <t>UND</t>
@@ -15926,7 +16070,11 @@
       <c r="AU69" t="inlineStr"/>
       <c r="AV69" t="inlineStr"/>
       <c r="AW69" t="inlineStr"/>
-      <c r="AX69" t="inlineStr"/>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>001/SMDHC/2022</t>
+        </is>
+      </c>
       <c r="AY69" t="inlineStr">
         <is>
           <t>UND</t>
@@ -16150,7 +16298,11 @@
       <c r="AU70" t="inlineStr"/>
       <c r="AV70" t="inlineStr"/>
       <c r="AW70" t="inlineStr"/>
-      <c r="AX70" t="inlineStr"/>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>001/SMDHC/2022</t>
+        </is>
+      </c>
       <c r="AY70" t="inlineStr">
         <is>
           <t>UND</t>
@@ -16374,7 +16526,11 @@
       <c r="AU71" t="inlineStr"/>
       <c r="AV71" t="inlineStr"/>
       <c r="AW71" t="inlineStr"/>
-      <c r="AX71" t="inlineStr"/>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>001/SMDHC/2022</t>
+        </is>
+      </c>
       <c r="AY71" t="inlineStr">
         <is>
           <t>UND</t>
@@ -17048,7 +17204,11 @@
       <c r="AU74" t="inlineStr"/>
       <c r="AV74" t="inlineStr"/>
       <c r="AW74" t="inlineStr"/>
-      <c r="AX74" t="inlineStr"/>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>001/SMDHC/2022</t>
+        </is>
+      </c>
       <c r="AY74" t="inlineStr">
         <is>
           <t>UND</t>
@@ -17497,7 +17657,11 @@
       <c r="AU76" t="inlineStr"/>
       <c r="AV76" t="inlineStr"/>
       <c r="AW76" t="inlineStr"/>
-      <c r="AX76" t="inlineStr"/>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>001/SMDHC/2022</t>
+        </is>
+      </c>
       <c r="AY76" t="inlineStr">
         <is>
           <t>UND</t>
@@ -17721,7 +17885,11 @@
       <c r="AU77" t="inlineStr"/>
       <c r="AV77" t="inlineStr"/>
       <c r="AW77" t="inlineStr"/>
-      <c r="AX77" t="inlineStr"/>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>001/SMDHC/2022</t>
+        </is>
+      </c>
       <c r="AY77" t="inlineStr">
         <is>
           <t>UND</t>
@@ -17945,7 +18113,11 @@
       <c r="AU78" t="inlineStr"/>
       <c r="AV78" t="inlineStr"/>
       <c r="AW78" t="inlineStr"/>
-      <c r="AX78" t="inlineStr"/>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>001/SMDHC/2022</t>
+        </is>
+      </c>
       <c r="AY78" t="inlineStr">
         <is>
           <t>UND</t>
@@ -18169,7 +18341,11 @@
       <c r="AU79" t="inlineStr"/>
       <c r="AV79" t="inlineStr"/>
       <c r="AW79" t="inlineStr"/>
-      <c r="AX79" t="inlineStr"/>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>028/SMDHC/2023</t>
+        </is>
+      </c>
       <c r="AY79" t="inlineStr">
         <is>
           <t>UND</t>
@@ -18393,7 +18569,11 @@
       <c r="AU80" t="inlineStr"/>
       <c r="AV80" t="inlineStr"/>
       <c r="AW80" t="inlineStr"/>
-      <c r="AX80" t="inlineStr"/>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>028/SMDHC/2023</t>
+        </is>
+      </c>
       <c r="AY80" t="inlineStr">
         <is>
           <t>UND</t>
@@ -18617,7 +18797,11 @@
       <c r="AU81" t="inlineStr"/>
       <c r="AV81" t="inlineStr"/>
       <c r="AW81" t="inlineStr"/>
-      <c r="AX81" t="inlineStr"/>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>028/SMDHC/2023</t>
+        </is>
+      </c>
       <c r="AY81" t="inlineStr">
         <is>
           <t>UND</t>
@@ -19066,7 +19250,11 @@
       <c r="AU83" t="inlineStr"/>
       <c r="AV83" t="inlineStr"/>
       <c r="AW83" t="inlineStr"/>
-      <c r="AX83" t="inlineStr"/>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>028/SMDHC/2023</t>
+        </is>
+      </c>
       <c r="AY83" t="inlineStr">
         <is>
           <t>UND</t>
@@ -35006,7 +35194,11 @@
       <c r="AU154" t="inlineStr"/>
       <c r="AV154" t="inlineStr"/>
       <c r="AW154" t="inlineStr"/>
-      <c r="AX154" t="inlineStr"/>
+      <c r="AX154" t="inlineStr">
+        <is>
+          <t>002/SMDHC/2025</t>
+        </is>
+      </c>
       <c r="AY154" t="inlineStr">
         <is>
           <t>UND</t>
@@ -35230,7 +35422,11 @@
       <c r="AU155" t="inlineStr"/>
       <c r="AV155" t="inlineStr"/>
       <c r="AW155" t="inlineStr"/>
-      <c r="AX155" t="inlineStr"/>
+      <c r="AX155" t="inlineStr">
+        <is>
+          <t>002/SMDHC/2025</t>
+        </is>
+      </c>
       <c r="AY155" t="inlineStr">
         <is>
           <t>UND</t>
@@ -35454,7 +35650,11 @@
       <c r="AU156" t="inlineStr"/>
       <c r="AV156" t="inlineStr"/>
       <c r="AW156" t="inlineStr"/>
-      <c r="AX156" t="inlineStr"/>
+      <c r="AX156" t="inlineStr">
+        <is>
+          <t>002/SMDHC/2025</t>
+        </is>
+      </c>
       <c r="AY156" t="inlineStr">
         <is>
           <t>UND</t>
@@ -38144,7 +38344,11 @@
       <c r="AU168" t="inlineStr"/>
       <c r="AV168" t="inlineStr"/>
       <c r="AW168" t="inlineStr"/>
-      <c r="AX168" t="inlineStr"/>
+      <c r="AX168" t="inlineStr">
+        <is>
+          <t>065/SMDHC/2023</t>
+        </is>
+      </c>
       <c r="AY168" t="inlineStr">
         <is>
           <t>UND</t>
@@ -38368,7 +38572,11 @@
       <c r="AU169" t="inlineStr"/>
       <c r="AV169" t="inlineStr"/>
       <c r="AW169" t="inlineStr"/>
-      <c r="AX169" t="inlineStr"/>
+      <c r="AX169" t="inlineStr">
+        <is>
+          <t>065/SMDHC/2023</t>
+        </is>
+      </c>
       <c r="AY169" t="inlineStr">
         <is>
           <t>UND</t>
@@ -38592,7 +38800,11 @@
       <c r="AU170" t="inlineStr"/>
       <c r="AV170" t="inlineStr"/>
       <c r="AW170" t="inlineStr"/>
-      <c r="AX170" t="inlineStr"/>
+      <c r="AX170" t="inlineStr">
+        <is>
+          <t>065/SMDHC/2023</t>
+        </is>
+      </c>
       <c r="AY170" t="inlineStr">
         <is>
           <t>UND</t>
@@ -40608,7 +40820,11 @@
       <c r="AU179" t="inlineStr"/>
       <c r="AV179" t="inlineStr"/>
       <c r="AW179" t="inlineStr"/>
-      <c r="AX179" t="inlineStr"/>
+      <c r="AX179" t="inlineStr">
+        <is>
+          <t>53/SMDHC/CPM</t>
+        </is>
+      </c>
       <c r="AY179" t="inlineStr">
         <is>
           <t>UN</t>
@@ -40832,7 +41048,11 @@
       <c r="AU180" t="inlineStr"/>
       <c r="AV180" t="inlineStr"/>
       <c r="AW180" t="inlineStr"/>
-      <c r="AX180" t="inlineStr"/>
+      <c r="AX180" t="inlineStr">
+        <is>
+          <t>53/SMDHC/CPM</t>
+        </is>
+      </c>
       <c r="AY180" t="inlineStr">
         <is>
           <t>UN</t>
@@ -41056,7 +41276,11 @@
       <c r="AU181" t="inlineStr"/>
       <c r="AV181" t="inlineStr"/>
       <c r="AW181" t="inlineStr"/>
-      <c r="AX181" t="inlineStr"/>
+      <c r="AX181" t="inlineStr">
+        <is>
+          <t>51/2023/SMDHC/CPM</t>
+        </is>
+      </c>
       <c r="AY181" t="inlineStr">
         <is>
           <t>UN</t>
@@ -41280,7 +41504,11 @@
       <c r="AU182" t="inlineStr"/>
       <c r="AV182" t="inlineStr"/>
       <c r="AW182" t="inlineStr"/>
-      <c r="AX182" t="inlineStr"/>
+      <c r="AX182" t="inlineStr">
+        <is>
+          <t>51/2023/SMDHC/CPM</t>
+        </is>
+      </c>
       <c r="AY182" t="inlineStr">
         <is>
           <t>UN</t>
@@ -41728,7 +41956,11 @@
       <c r="AU184" t="inlineStr"/>
       <c r="AV184" t="inlineStr"/>
       <c r="AW184" t="inlineStr"/>
-      <c r="AX184" t="inlineStr"/>
+      <c r="AX184" t="inlineStr">
+        <is>
+          <t>52/2023/SMDHC/CPM</t>
+        </is>
+      </c>
       <c r="AY184" t="inlineStr">
         <is>
           <t>UN</t>
@@ -42176,7 +42408,11 @@
       <c r="AU186" t="inlineStr"/>
       <c r="AV186" t="inlineStr"/>
       <c r="AW186" t="inlineStr"/>
-      <c r="AX186" t="inlineStr"/>
+      <c r="AX186" t="inlineStr">
+        <is>
+          <t>52/2023/SMDHC/CPM</t>
+        </is>
+      </c>
       <c r="AY186" t="inlineStr">
         <is>
           <t>UN</t>
@@ -42848,7 +43084,11 @@
       <c r="AU189" t="inlineStr"/>
       <c r="AV189" t="inlineStr"/>
       <c r="AW189" t="inlineStr"/>
-      <c r="AX189" t="inlineStr"/>
+      <c r="AX189" t="inlineStr">
+        <is>
+          <t>192/2021</t>
+        </is>
+      </c>
       <c r="AY189" t="inlineStr">
         <is>
           <t>UN</t>
@@ -43520,7 +43760,11 @@
       <c r="AU192" t="inlineStr"/>
       <c r="AV192" t="inlineStr"/>
       <c r="AW192" t="inlineStr"/>
-      <c r="AX192" t="inlineStr"/>
+      <c r="AX192" t="inlineStr">
+        <is>
+          <t>TCL/003/2016/SMPM</t>
+        </is>
+      </c>
       <c r="AY192" t="inlineStr">
         <is>
           <t>UN</t>
@@ -43744,7 +43988,11 @@
       <c r="AU193" t="inlineStr"/>
       <c r="AV193" t="inlineStr"/>
       <c r="AW193" t="inlineStr"/>
-      <c r="AX193" t="inlineStr"/>
+      <c r="AX193" t="inlineStr">
+        <is>
+          <t>TCL/003/2016/SMPM</t>
+        </is>
+      </c>
       <c r="AY193" t="inlineStr">
         <is>
           <t>UN</t>
@@ -44192,7 +44440,11 @@
       <c r="AU195" t="inlineStr"/>
       <c r="AV195" t="inlineStr"/>
       <c r="AW195" t="inlineStr"/>
-      <c r="AX195" t="inlineStr"/>
+      <c r="AX195" t="inlineStr">
+        <is>
+          <t>301/2021</t>
+        </is>
+      </c>
       <c r="AY195" t="inlineStr">
         <is>
           <t>UN</t>
@@ -44416,7 +44668,11 @@
       <c r="AU196" t="inlineStr"/>
       <c r="AV196" t="inlineStr"/>
       <c r="AW196" t="inlineStr"/>
-      <c r="AX196" t="inlineStr"/>
+      <c r="AX196" t="inlineStr">
+        <is>
+          <t>301/2021</t>
+        </is>
+      </c>
       <c r="AY196" t="inlineStr">
         <is>
           <t>UN</t>
@@ -44640,7 +44896,11 @@
       <c r="AU197" t="inlineStr"/>
       <c r="AV197" t="inlineStr"/>
       <c r="AW197" t="inlineStr"/>
-      <c r="AX197" t="inlineStr"/>
+      <c r="AX197" t="inlineStr">
+        <is>
+          <t>029/2022</t>
+        </is>
+      </c>
       <c r="AY197" t="inlineStr">
         <is>
           <t>UN</t>
@@ -44864,7 +45124,11 @@
       <c r="AU198" t="inlineStr"/>
       <c r="AV198" t="inlineStr"/>
       <c r="AW198" t="inlineStr"/>
-      <c r="AX198" t="inlineStr"/>
+      <c r="AX198" t="inlineStr">
+        <is>
+          <t>075/2023</t>
+        </is>
+      </c>
       <c r="AY198" t="inlineStr">
         <is>
           <t>UN</t>
@@ -45088,7 +45352,11 @@
       <c r="AU199" t="inlineStr"/>
       <c r="AV199" t="inlineStr"/>
       <c r="AW199" t="inlineStr"/>
-      <c r="AX199" t="inlineStr"/>
+      <c r="AX199" t="inlineStr">
+        <is>
+          <t>075/2023</t>
+        </is>
+      </c>
       <c r="AY199" t="inlineStr">
         <is>
           <t>UN</t>
@@ -45312,7 +45580,11 @@
       <c r="AU200" t="inlineStr"/>
       <c r="AV200" t="inlineStr"/>
       <c r="AW200" t="inlineStr"/>
-      <c r="AX200" t="inlineStr"/>
+      <c r="AX200" t="inlineStr">
+        <is>
+          <t>TC 503/2023</t>
+        </is>
+      </c>
       <c r="AY200" t="inlineStr">
         <is>
           <t>UN</t>
@@ -45536,7 +45808,11 @@
       <c r="AU201" t="inlineStr"/>
       <c r="AV201" t="inlineStr"/>
       <c r="AW201" t="inlineStr"/>
-      <c r="AX201" t="inlineStr"/>
+      <c r="AX201" t="inlineStr">
+        <is>
+          <t>TC 503/2023</t>
+        </is>
+      </c>
       <c r="AY201" t="inlineStr">
         <is>
           <t>UN</t>
@@ -45760,7 +46036,11 @@
       <c r="AU202" t="inlineStr"/>
       <c r="AV202" t="inlineStr"/>
       <c r="AW202" t="inlineStr"/>
-      <c r="AX202" t="inlineStr"/>
+      <c r="AX202" t="inlineStr">
+        <is>
+          <t>TC 130/2024</t>
+        </is>
+      </c>
       <c r="AY202" t="inlineStr">
         <is>
           <t>UN</t>
@@ -45984,7 +46264,11 @@
       <c r="AU203" t="inlineStr"/>
       <c r="AV203" t="inlineStr"/>
       <c r="AW203" t="inlineStr"/>
-      <c r="AX203" t="inlineStr"/>
+      <c r="AX203" t="inlineStr">
+        <is>
+          <t>TC 130/2024</t>
+        </is>
+      </c>
       <c r="AY203" t="inlineStr">
         <is>
           <t>UN</t>
@@ -46208,7 +46492,11 @@
       <c r="AU204" t="inlineStr"/>
       <c r="AV204" t="inlineStr"/>
       <c r="AW204" t="inlineStr"/>
-      <c r="AX204" t="inlineStr"/>
+      <c r="AX204" t="inlineStr">
+        <is>
+          <t>TC 566/2023</t>
+        </is>
+      </c>
       <c r="AY204" t="inlineStr">
         <is>
           <t>UN</t>
@@ -46432,7 +46720,11 @@
       <c r="AU205" t="inlineStr"/>
       <c r="AV205" t="inlineStr"/>
       <c r="AW205" t="inlineStr"/>
-      <c r="AX205" t="inlineStr"/>
+      <c r="AX205" t="inlineStr">
+        <is>
+          <t>TC 566/2023</t>
+        </is>
+      </c>
       <c r="AY205" t="inlineStr">
         <is>
           <t>UN</t>
@@ -46656,7 +46948,11 @@
       <c r="AU206" t="inlineStr"/>
       <c r="AV206" t="inlineStr"/>
       <c r="AW206" t="inlineStr"/>
-      <c r="AX206" t="inlineStr"/>
+      <c r="AX206" t="inlineStr">
+        <is>
+          <t>229/23</t>
+        </is>
+      </c>
       <c r="AY206" t="inlineStr">
         <is>
           <t>UN</t>
@@ -46880,7 +47176,11 @@
       <c r="AU207" t="inlineStr"/>
       <c r="AV207" t="inlineStr"/>
       <c r="AW207" t="inlineStr"/>
-      <c r="AX207" t="inlineStr"/>
+      <c r="AX207" t="inlineStr">
+        <is>
+          <t>229/23</t>
+        </is>
+      </c>
       <c r="AY207" t="inlineStr">
         <is>
           <t>UN</t>
@@ -47104,7 +47404,11 @@
       <c r="AU208" t="inlineStr"/>
       <c r="AV208" t="inlineStr"/>
       <c r="AW208" t="inlineStr"/>
-      <c r="AX208" t="inlineStr"/>
+      <c r="AX208" t="inlineStr">
+        <is>
+          <t>624/2023</t>
+        </is>
+      </c>
       <c r="AY208" t="inlineStr">
         <is>
           <t>UN</t>
@@ -47328,7 +47632,11 @@
       <c r="AU209" t="inlineStr"/>
       <c r="AV209" t="inlineStr"/>
       <c r="AW209" t="inlineStr"/>
-      <c r="AX209" t="inlineStr"/>
+      <c r="AX209" t="inlineStr">
+        <is>
+          <t>624/2023</t>
+        </is>
+      </c>
       <c r="AY209" t="inlineStr">
         <is>
           <t>UN</t>
@@ -47552,7 +47860,11 @@
       <c r="AU210" t="inlineStr"/>
       <c r="AV210" t="inlineStr"/>
       <c r="AW210" t="inlineStr"/>
-      <c r="AX210" t="inlineStr"/>
+      <c r="AX210" t="inlineStr">
+        <is>
+          <t>214/19</t>
+        </is>
+      </c>
       <c r="AY210" t="inlineStr">
         <is>
           <t>UN</t>
@@ -47776,7 +48088,11 @@
       <c r="AU211" t="inlineStr"/>
       <c r="AV211" t="inlineStr"/>
       <c r="AW211" t="inlineStr"/>
-      <c r="AX211" t="inlineStr"/>
+      <c r="AX211" t="inlineStr">
+        <is>
+          <t>214/19</t>
+        </is>
+      </c>
       <c r="AY211" t="inlineStr">
         <is>
           <t>UN</t>
@@ -48000,7 +48316,11 @@
       <c r="AU212" t="inlineStr"/>
       <c r="AV212" t="inlineStr"/>
       <c r="AW212" t="inlineStr"/>
-      <c r="AX212" t="inlineStr"/>
+      <c r="AX212" t="inlineStr">
+        <is>
+          <t>286/23</t>
+        </is>
+      </c>
       <c r="AY212" t="inlineStr">
         <is>
           <t>UN</t>
@@ -48224,7 +48544,11 @@
       <c r="AU213" t="inlineStr"/>
       <c r="AV213" t="inlineStr"/>
       <c r="AW213" t="inlineStr"/>
-      <c r="AX213" t="inlineStr"/>
+      <c r="AX213" t="inlineStr">
+        <is>
+          <t>286/23</t>
+        </is>
+      </c>
       <c r="AY213" t="inlineStr">
         <is>
           <t>UN</t>
@@ -48448,7 +48772,11 @@
       <c r="AU214" t="inlineStr"/>
       <c r="AV214" t="inlineStr"/>
       <c r="AW214" t="inlineStr"/>
-      <c r="AX214" t="inlineStr"/>
+      <c r="AX214" t="inlineStr">
+        <is>
+          <t>TC 315/23</t>
+        </is>
+      </c>
       <c r="AY214" t="inlineStr">
         <is>
           <t>UN</t>
@@ -48672,7 +49000,11 @@
       <c r="AU215" t="inlineStr"/>
       <c r="AV215" t="inlineStr"/>
       <c r="AW215" t="inlineStr"/>
-      <c r="AX215" t="inlineStr"/>
+      <c r="AX215" t="inlineStr">
+        <is>
+          <t>TC 315/23</t>
+        </is>
+      </c>
       <c r="AY215" t="inlineStr">
         <is>
           <t>UN</t>
@@ -48896,7 +49228,11 @@
       <c r="AU216" t="inlineStr"/>
       <c r="AV216" t="inlineStr"/>
       <c r="AW216" t="inlineStr"/>
-      <c r="AX216" t="inlineStr"/>
+      <c r="AX216" t="inlineStr">
+        <is>
+          <t>103/SMADS/2020</t>
+        </is>
+      </c>
       <c r="AY216" t="inlineStr">
         <is>
           <t>UN</t>
@@ -49120,7 +49456,11 @@
       <c r="AU217" t="inlineStr"/>
       <c r="AV217" t="inlineStr"/>
       <c r="AW217" t="inlineStr"/>
-      <c r="AX217" t="inlineStr"/>
+      <c r="AX217" t="inlineStr">
+        <is>
+          <t>103/SMADS/2020</t>
+        </is>
+      </c>
       <c r="AY217" t="inlineStr">
         <is>
           <t>UN</t>
@@ -49136,6 +49476,7064 @@
       </c>
       <c r="BB217" t="n">
         <v>372866.17</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>6168</v>
+      </c>
+      <c r="D218" t="n">
+        <v>11184</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>6074202300097696</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>20720459000177</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>INSTITUTO DE PESQUISA POPULAR MEU LUGAR</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>33101</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2023</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>4024</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>Promoção da Cidadania e da Diversidade</t>
+        </is>
+      </c>
+      <c r="W218" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>Manutenção da Ouvidoria de Direitos Humanos</t>
+        </is>
+      </c>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z218" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA218" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB218" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC218" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD218" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE218" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF218" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG218" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH218" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI218" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ218" t="inlineStr">
+        <is>
+          <t>Outras Despesas</t>
+        </is>
+      </c>
+      <c r="AK218" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL218" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM218" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN218" t="n">
+        <v>88601.53</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>88601.53</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT218" t="inlineStr"/>
+      <c r="AU218" t="inlineStr"/>
+      <c r="AV218" t="inlineStr"/>
+      <c r="AW218" t="inlineStr"/>
+      <c r="AX218" t="inlineStr">
+        <is>
+          <t>63/2023/SMDHC/ODH</t>
+        </is>
+      </c>
+      <c r="AY218" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="AZ218" t="inlineStr">
+        <is>
+          <t>Termo de Colaboração nº TCL/063/2023/SMDHC/ODH - Gestão do Núcleos de Atendimentos em Direitos Humanos NDH(s) do
+Butantã, Campo Limpo, Jabaquara e Capela do Socorro, vinculado à Ouvidoria da SMDHC - Referente a 5º e 6º Parcelas.</t>
+        </is>
+      </c>
+      <c r="BA218" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>88601.53</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>6168</v>
+      </c>
+      <c r="D219" t="n">
+        <v>11190</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>6074202300097696</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>20720459000177</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>INSTITUTO DE PESQUISA POPULAR MEU LUGAR</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>33101</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2023</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>4024</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>Promoção da Cidadania e da Diversidade</t>
+        </is>
+      </c>
+      <c r="W219" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>Manutenção da Ouvidoria de Direitos Humanos</t>
+        </is>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA219" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB219" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC219" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD219" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE219" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF219" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG219" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH219" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI219" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ219" t="inlineStr">
+        <is>
+          <t>Remuneração de Pessoal</t>
+        </is>
+      </c>
+      <c r="AK219" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL219" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM219" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN219" t="n">
+        <v>1703847.67</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1703847.67</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT219" t="inlineStr"/>
+      <c r="AU219" t="inlineStr"/>
+      <c r="AV219" t="inlineStr"/>
+      <c r="AW219" t="inlineStr"/>
+      <c r="AX219" t="inlineStr">
+        <is>
+          <t>63/2023/SMDHC/ODH</t>
+        </is>
+      </c>
+      <c r="AY219" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="AZ219" t="inlineStr">
+        <is>
+          <t>Termo de Colaboração nº TCL/063/2023/SMDHC/ODH - Gestão do Núcleos de Atendimentos em Direitos Humanos NDH(s) do Butantã, Campo Limpo, Jabaquara e Capela do Socorro, vinculado à Ouvidoria da SMDHC - Referente a 5º e 6º Parcelas.</t>
+        </is>
+      </c>
+      <c r="BA219" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1703847.67</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>132</v>
+      </c>
+      <c r="D220" t="n">
+        <v>11270</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>6074202500091403</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>35147368000161</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>MINERVA ENGENHARIA LTDA</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>2587</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2026</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W220" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação da Casa da Mulher Brasileira</t>
+        </is>
+      </c>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA220" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB220" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC220" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD220" t="inlineStr">
+        <is>
+          <t>Aplicações Diretas</t>
+        </is>
+      </c>
+      <c r="AE220" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF220" t="inlineStr">
+        <is>
+          <t>Serviços Técnicos Profissionais</t>
+        </is>
+      </c>
+      <c r="AG220" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH220" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ220" t="inlineStr">
+        <is>
+          <t>Engenharia (exceto constr. estradas, pontes, prédios e obras assem.)</t>
+        </is>
+      </c>
+      <c r="AK220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL220" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM220" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN220" t="n">
+        <v>2644</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>2644</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT220" t="inlineStr"/>
+      <c r="AU220" t="inlineStr"/>
+      <c r="AV220" t="inlineStr"/>
+      <c r="AW220" t="inlineStr"/>
+      <c r="AX220" t="inlineStr"/>
+      <c r="AY220" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="AZ220" t="inlineStr">
+        <is>
+          <t>Contratação de empresa
+especializada em engenharia e
+arquitetura, regularmente
+habilitada junto ao CREA/CAU
+para atualização dos projetos
+básicos e executivos de
+Prevenção e Combate a
+Incêndio (PPCI), incluindo
+memoriais, cálculos, relatórios,
+ART/RRT e demais documentos
+necessários, visando a
+renovação do Auto de Vistoria do Corpo de Bombeiros (AVCB)
+da Casa da Mulher Brasileira -
+CMB.</t>
+        </is>
+      </c>
+      <c r="BA220" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>10732</v>
+      </c>
+      <c r="D221" t="n">
+        <v>11272</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>6074202400074019</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>04488578000190</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>CASA DE ISABEL-CENTRO DE APOIO A MULHER A CRIAN. E AD VIT VIOLÊNC.DOM.</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>27876</v>
+      </c>
+      <c r="L221" t="n">
+        <v>2023</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N221" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA221" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB221" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC221" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD221" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE221" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF221" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG221" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH221" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI221" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ221" t="inlineStr">
+        <is>
+          <t>Outras Despesas</t>
+        </is>
+      </c>
+      <c r="AK221" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL221" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM221" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN221" t="n">
+        <v>179609.65</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>179609.65</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT221" t="inlineStr"/>
+      <c r="AU221" t="inlineStr"/>
+      <c r="AV221" t="inlineStr"/>
+      <c r="AW221" t="inlineStr"/>
+      <c r="AX221" t="inlineStr">
+        <is>
+          <t>459/2023</t>
+        </is>
+      </c>
+      <c r="AY221" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ221" t="inlineStr">
+        <is>
+          <t>TCL/459/2023/SMADS/CPM</t>
+        </is>
+      </c>
+      <c r="BA221" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>179609.65</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>10745</v>
+      </c>
+      <c r="D222" t="n">
+        <v>11300</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>6074202400074019</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>04488578000190</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>CASA DE ISABEL-CENTRO DE APOIO A MULHER A CRIAN. E AD VIT VIOLÊNC.DOM.</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>27876</v>
+      </c>
+      <c r="L222" t="n">
+        <v>2023</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA222" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB222" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC222" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD222" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE222" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF222" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG222" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH222" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ222" t="inlineStr">
+        <is>
+          <t>Outras Despesas</t>
+        </is>
+      </c>
+      <c r="AK222" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL222" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM222" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN222" t="n">
+        <v>179609.65</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>179609.65</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT222" t="inlineStr"/>
+      <c r="AU222" t="inlineStr"/>
+      <c r="AV222" t="inlineStr"/>
+      <c r="AW222" t="inlineStr"/>
+      <c r="AX222" t="inlineStr">
+        <is>
+          <t>459/2023</t>
+        </is>
+      </c>
+      <c r="AY222" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TCL/459/2023/SMADS/CPM </t>
+        </is>
+      </c>
+      <c r="BA222" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>179609.65</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>10745</v>
+      </c>
+      <c r="D223" t="n">
+        <v>11304</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>6074202400074019</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>04488578000190</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>CASA DE ISABEL-CENTRO DE APOIO A MULHER A CRIAN. E AD VIT VIOLÊNC.DOM.</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>27876</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2023</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W223" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA223" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB223" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC223" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD223" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE223" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF223" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG223" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH223" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI223" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ223" t="inlineStr">
+        <is>
+          <t>Remuneração de Pessoal</t>
+        </is>
+      </c>
+      <c r="AK223" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL223" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM223" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN223" t="n">
+        <v>470290.58</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>470290.58</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT223" t="inlineStr"/>
+      <c r="AU223" t="inlineStr"/>
+      <c r="AV223" t="inlineStr"/>
+      <c r="AW223" t="inlineStr"/>
+      <c r="AX223" t="inlineStr">
+        <is>
+          <t>459/2023</t>
+        </is>
+      </c>
+      <c r="AY223" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ223" t="inlineStr">
+        <is>
+          <t>TCL/459/2023/SMADS/CPM</t>
+        </is>
+      </c>
+      <c r="BA223" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>470290.58</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>10174</v>
+      </c>
+      <c r="D224" t="n">
+        <v>11658</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>6074202500096014</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>00307018000000</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>PMSP-SMDHC/AUXÍLIO EMERGENCIAL DE ALUGUEL</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1049</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2026</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>Políticas, Programas e Ações para Mulheres</t>
+        </is>
+      </c>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA224" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB224" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC224" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD224" t="inlineStr">
+        <is>
+          <t>Aplicações Diretas</t>
+        </is>
+      </c>
+      <c r="AE224" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="AF224" t="inlineStr">
+        <is>
+          <t>Auxílios a Pessoas Físicas</t>
+        </is>
+      </c>
+      <c r="AG224" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH224" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ224" t="inlineStr">
+        <is>
+          <t>Auxílio Aluguel</t>
+        </is>
+      </c>
+      <c r="AK224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL224" t="inlineStr">
+        <is>
+          <t>Outros Auxílios Financeiros a Pessoas Físicas</t>
+        </is>
+      </c>
+      <c r="AM224" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN224" t="n">
+        <v>797200</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>797200</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT224" t="inlineStr"/>
+      <c r="AU224" t="inlineStr"/>
+      <c r="AV224" t="inlineStr"/>
+      <c r="AW224" t="inlineStr"/>
+      <c r="AX224" t="inlineStr"/>
+      <c r="AY224" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ224" t="inlineStr">
+        <is>
+          <t>Auxílio Aluguel para Mulheres Vítimas de Violência - fevereiro/2026.</t>
+        </is>
+      </c>
+      <c r="BA224" t="n">
+        <v>1993</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>9469</v>
+      </c>
+      <c r="D225" t="n">
+        <v>11664</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>6074201700002600</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>76740099804</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>ROBINSON CORREA</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z225" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA225" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB225" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC225" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD225" t="inlineStr">
+        <is>
+          <t>Aplicações Diretas</t>
+        </is>
+      </c>
+      <c r="AE225" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AF225" t="inlineStr">
+        <is>
+          <t>Locação de Imóveis</t>
+        </is>
+      </c>
+      <c r="AG225" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH225" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ225" t="inlineStr">
+        <is>
+          <t>Locação de Imóveis</t>
+        </is>
+      </c>
+      <c r="AK225" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL225" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Física</t>
+        </is>
+      </c>
+      <c r="AM225" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN225" t="n">
+        <v>63733.33</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>63733.33</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT225" t="inlineStr"/>
+      <c r="AU225" t="inlineStr"/>
+      <c r="AV225" t="inlineStr"/>
+      <c r="AW225" t="inlineStr"/>
+      <c r="AX225" t="inlineStr"/>
+      <c r="AY225" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="AZ225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locação do imóvel destinado a Casa de Acolhimento Provisório Rosângela Rigo - Exercício 2026 - Principal
+</t>
+        </is>
+      </c>
+      <c r="BA225" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>63733.33</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>9469</v>
+      </c>
+      <c r="D226" t="n">
+        <v>11673</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>6074201700002600</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>76740099804</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>ROBINSON CORREA</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z226" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA226" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB226" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC226" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD226" t="inlineStr">
+        <is>
+          <t>Aplicações Diretas</t>
+        </is>
+      </c>
+      <c r="AE226" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AF226" t="inlineStr">
+        <is>
+          <t>Locação de Imóveis</t>
+        </is>
+      </c>
+      <c r="AG226" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH226" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ226" t="inlineStr">
+        <is>
+          <t>Locação de Imóveis</t>
+        </is>
+      </c>
+      <c r="AK226" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL226" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Física</t>
+        </is>
+      </c>
+      <c r="AM226" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN226" t="n">
+        <v>24798.63</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>24798.63</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT226" t="inlineStr"/>
+      <c r="AU226" t="inlineStr"/>
+      <c r="AV226" t="inlineStr"/>
+      <c r="AW226" t="inlineStr"/>
+      <c r="AX226" t="inlineStr"/>
+      <c r="AY226" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="AZ226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locação do imóvel destinado a Casa de Acolhimento Provisório Rosângela Rigo - Exercício 2026 - Reajuste
+</t>
+        </is>
+      </c>
+      <c r="BA226" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>24798.63</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>10231</v>
+      </c>
+      <c r="D227" t="n">
+        <v>11676</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>6074202500094038</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>00350152000000</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>PMSP-SMDHC/AUXÍLIO AMPARA</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1032</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2026</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>4019</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>Proteção a Crianças e Adolescentes</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>Políticas, Programas e Ações Para Criança e Adolescente</t>
+        </is>
+      </c>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA227" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB227" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC227" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD227" t="inlineStr">
+        <is>
+          <t>Aplicações Diretas</t>
+        </is>
+      </c>
+      <c r="AE227" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="AF227" t="inlineStr">
+        <is>
+          <t>Auxílios a Pessoas Físicas</t>
+        </is>
+      </c>
+      <c r="AG227" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH227" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI227" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AJ227" t="inlineStr">
+        <is>
+          <t>Outros Auxílios a Pessoas Físicas</t>
+        </is>
+      </c>
+      <c r="AK227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL227" t="inlineStr">
+        <is>
+          <t>Outros Auxílios Financeiros a Pessoas Físicas</t>
+        </is>
+      </c>
+      <c r="AM227" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN227" t="n">
+        <v>122450</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>122450</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT227" t="inlineStr"/>
+      <c r="AU227" t="inlineStr"/>
+      <c r="AV227" t="inlineStr"/>
+      <c r="AW227" t="inlineStr"/>
+      <c r="AX227" t="inlineStr"/>
+      <c r="AY227" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ227" t="inlineStr">
+        <is>
+          <t>Pagamento do Auxílio Ampara - fevereiro/2026.</t>
+        </is>
+      </c>
+      <c r="BA227" t="n">
+        <v>79</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>9463</v>
+      </c>
+      <c r="D228" t="n">
+        <v>11686</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>6074201700002600</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>76740099804</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>ROBINSON CORREA</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W228" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA228" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB228" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC228" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD228" t="inlineStr">
+        <is>
+          <t>Aplicações Diretas</t>
+        </is>
+      </c>
+      <c r="AE228" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AF228" t="inlineStr">
+        <is>
+          <t>Impostos</t>
+        </is>
+      </c>
+      <c r="AG228" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH228" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ228" t="inlineStr">
+        <is>
+          <t>IPTU</t>
+        </is>
+      </c>
+      <c r="AK228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL228" t="inlineStr">
+        <is>
+          <t>Obrigações Tributárias e Contributivas</t>
+        </is>
+      </c>
+      <c r="AM228" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN228" t="n">
+        <v>19678.5</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>19678.5</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT228" t="inlineStr"/>
+      <c r="AU228" t="inlineStr"/>
+      <c r="AV228" t="inlineStr"/>
+      <c r="AW228" t="inlineStr"/>
+      <c r="AX228" t="inlineStr"/>
+      <c r="AY228" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="AZ228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locação do imóvel destinado a Casa de Acolhimento Provisório Rosângela Rigo - Exercício 2026 - IPTU
+</t>
+        </is>
+      </c>
+      <c r="BA228" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>19678.5</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>11030</v>
+      </c>
+      <c r="D229" t="n">
+        <v>11722</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>6074202500086663</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>61695227000193</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>ELETROPAULO METROPOLITANA ELETRICIDADE DE SAO PAULO SA</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>2754</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2026</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Assistência à Criança e ao Adolescente</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>4019</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>Proteção a Crianças e Adolescentes</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>2157</t>
+        </is>
+      </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>Administração dos Conselhos Tutelares</t>
+        </is>
+      </c>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA229" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB229" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC229" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD229" t="inlineStr">
+        <is>
+          <t>Aplicações Diretas</t>
+        </is>
+      </c>
+      <c r="AE229" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF229" t="inlineStr">
+        <is>
+          <t>Serviços de Energia Elétrica</t>
+        </is>
+      </c>
+      <c r="AG229" t="inlineStr">
+        <is>
+          <t>00.1.500.9006</t>
+        </is>
+      </c>
+      <c r="AH229" t="inlineStr">
+        <is>
+          <t>Recursos destinados ao pagamento de concessionárias</t>
+        </is>
+      </c>
+      <c r="AI229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ229" t="inlineStr">
+        <is>
+          <t>Energia Elétrica de Prédios Públicos</t>
+        </is>
+      </c>
+      <c r="AK229" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AL229" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM229" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN229" t="n">
+        <v>250000</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>250000</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT229" t="inlineStr"/>
+      <c r="AU229" t="inlineStr"/>
+      <c r="AV229" t="inlineStr"/>
+      <c r="AW229" t="inlineStr"/>
+      <c r="AX229" t="inlineStr"/>
+      <c r="AY229" t="inlineStr">
+        <is>
+          <t>und</t>
+        </is>
+      </c>
+      <c r="AZ229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prestação dos serviços de fornecimento de energia elétrica dos
+Conselhos Tutelares
+</t>
+        </is>
+      </c>
+      <c r="BA229" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>11056</v>
+      </c>
+      <c r="D230" t="n">
+        <v>11723</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>6074202300078993</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>02928443000172</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>CENTRO DE INTEGRACAO ASSISTENCIAL E PROFISSIONAL SAO PATRICIO CIAP SAO PATRICIO</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>29695</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2023</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z230" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA230" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB230" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC230" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD230" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE230" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF230" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG230" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH230" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI230" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ230" t="inlineStr">
+        <is>
+          <t>Outras Despesas</t>
+        </is>
+      </c>
+      <c r="AK230" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL230" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM230" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN230" t="n">
+        <v>682954.22</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>682954.22</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT230" t="inlineStr"/>
+      <c r="AU230" t="inlineStr"/>
+      <c r="AV230" t="inlineStr"/>
+      <c r="AW230" t="inlineStr"/>
+      <c r="AX230" t="inlineStr">
+        <is>
+          <t>54/2023/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="AY230" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ230" t="inlineStr">
+        <is>
+          <t>TCL/054/2023/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="BA230" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>682954.22</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>11056</v>
+      </c>
+      <c r="D231" t="n">
+        <v>11729</v>
+      </c>
+      <c r="E231" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>6074202300078993</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>02928443000172</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>CENTRO DE INTEGRACAO ASSISTENCIAL E PROFISSIONAL SAO PATRICIO CIAP SAO PATRICIO</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>29695</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2023</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z231" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB231" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC231" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD231" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE231" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF231" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG231" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH231" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI231" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ231" t="inlineStr">
+        <is>
+          <t>Remuneração de Pessoal</t>
+        </is>
+      </c>
+      <c r="AK231" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL231" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM231" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN231" t="n">
+        <v>787135.95</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>787135.95</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT231" t="inlineStr"/>
+      <c r="AU231" t="inlineStr"/>
+      <c r="AV231" t="inlineStr"/>
+      <c r="AW231" t="inlineStr"/>
+      <c r="AX231" t="inlineStr">
+        <is>
+          <t>54/2023/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="AY231" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ231" t="inlineStr">
+        <is>
+          <t>TCL/054/2023/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="BA231" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>787135.95</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>11073</v>
+      </c>
+      <c r="D232" t="n">
+        <v>11744</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>6074202400022337</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>04488578000190</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>CASA DE ISABEL-CENTRO DE APOIO A MULHER A CRIAN. E AD VIT VIOLÊNC.DOM.</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>9969</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W232" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA232" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB232" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC232" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD232" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE232" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF232" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG232" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH232" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI232" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ232" t="inlineStr">
+        <is>
+          <t>Outras Despesas</t>
+        </is>
+      </c>
+      <c r="AK232" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL232" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM232" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN232" t="n">
+        <v>660566.83</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>660566.83</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT232" t="inlineStr"/>
+      <c r="AU232" t="inlineStr"/>
+      <c r="AV232" t="inlineStr"/>
+      <c r="AW232" t="inlineStr"/>
+      <c r="AX232" t="inlineStr">
+        <is>
+          <t>16/2023/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="AY232" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ232" t="inlineStr">
+        <is>
+          <t>TCL/016/2024/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="BA232" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>660566.83</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>11073</v>
+      </c>
+      <c r="D233" t="n">
+        <v>11745</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>6074202400022337</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>04488578000190</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>CASA DE ISABEL-CENTRO DE APOIO A MULHER A CRIAN. E AD VIT VIOLÊNC.DOM.</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>9969</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA233" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB233" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC233" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD233" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE233" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF233" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG233" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH233" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI233" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ233" t="inlineStr">
+        <is>
+          <t>Remuneração de Pessoal</t>
+        </is>
+      </c>
+      <c r="AK233" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL233" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM233" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN233" t="n">
+        <v>1148086.7</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1148086.7</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT233" t="inlineStr"/>
+      <c r="AU233" t="inlineStr"/>
+      <c r="AV233" t="inlineStr"/>
+      <c r="AW233" t="inlineStr"/>
+      <c r="AX233" t="inlineStr">
+        <is>
+          <t>16/2023/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="AY233" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ233" t="inlineStr">
+        <is>
+          <t>TCL/016/2024/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="BA233" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1148086.7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>11091</v>
+      </c>
+      <c r="D234" t="n">
+        <v>11756</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>6074202400022310</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>07618241000148</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO AFRO BRASILEIRA NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>10115</v>
+      </c>
+      <c r="L234" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W234" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z234" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA234" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB234" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC234" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD234" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE234" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF234" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG234" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH234" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI234" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ234" t="inlineStr">
+        <is>
+          <t>Outras Despesas</t>
+        </is>
+      </c>
+      <c r="AK234" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL234" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM234" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN234" t="n">
+        <v>281648.57</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>281648.57</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT234" t="inlineStr"/>
+      <c r="AU234" t="inlineStr"/>
+      <c r="AV234" t="inlineStr"/>
+      <c r="AW234" t="inlineStr"/>
+      <c r="AX234" t="inlineStr">
+        <is>
+          <t>14/2024/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="AY234" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ234" t="inlineStr">
+        <is>
+          <t>TCL/014/2024/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="BA234" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>281648.57</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>11091</v>
+      </c>
+      <c r="D235" t="n">
+        <v>11758</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>6074202400022310</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>07618241000148</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO AFRO BRASILEIRA NOSSA SENHORA APARECIDA</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>10115</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA235" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB235" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC235" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD235" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF235" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG235" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH235" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI235" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ235" t="inlineStr">
+        <is>
+          <t>Remuneração de Pessoal</t>
+        </is>
+      </c>
+      <c r="AK235" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL235" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM235" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN235" t="n">
+        <v>588305.16</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>588305.16</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT235" t="inlineStr"/>
+      <c r="AU235" t="inlineStr"/>
+      <c r="AV235" t="inlineStr"/>
+      <c r="AW235" t="inlineStr"/>
+      <c r="AX235" t="inlineStr">
+        <is>
+          <t>14/2024/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="AY235" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ235" t="inlineStr">
+        <is>
+          <t>TCL/014/2024/SMDHC/CPM - até junho/2026.</t>
+        </is>
+      </c>
+      <c r="BA235" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>588305.16</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>11110</v>
+      </c>
+      <c r="D236" t="n">
+        <v>11771</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>6074202000060606</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>59940080000108</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>CENTRO GASPAR GARCIA DE DIREITOS HUMANOS</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>10879</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2021</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>4018</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>Assistência e Proteção Sociais</t>
+        </is>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>2431</t>
+        </is>
+      </c>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA236" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB236" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC236" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD236" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF236" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG236" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH236" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI236" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ236" t="inlineStr">
+        <is>
+          <t>Outras Despesas</t>
+        </is>
+      </c>
+      <c r="AK236" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL236" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM236" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN236" t="n">
+        <v>343154.69</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>343154.69</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT236" t="inlineStr"/>
+      <c r="AU236" t="inlineStr"/>
+      <c r="AV236" t="inlineStr"/>
+      <c r="AW236" t="inlineStr"/>
+      <c r="AX236" t="inlineStr">
+        <is>
+          <t>506/SMADS/2018</t>
+        </is>
+      </c>
+      <c r="AY236" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="AZ236" t="inlineStr">
+        <is>
+          <t>Termo de Colaboração nº TCL/506/2018/SMDHC/CPPSR - Exercício 2026 - Período de: JANEIRO/2026 a SETEMBRO/2026</t>
+        </is>
+      </c>
+      <c r="BA236" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>343154.69</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>11114</v>
+      </c>
+      <c r="D237" t="n">
+        <v>11775</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>6074202400022353</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>74087081000145</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>APOIOASSOCIACAO DE AUXILIO MUTUO DA REGIAO LESTE</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>10136</v>
+      </c>
+      <c r="L237" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA237" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB237" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC237" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH237" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI237" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ237" t="inlineStr">
+        <is>
+          <t>Outras Despesas</t>
+        </is>
+      </c>
+      <c r="AK237" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL237" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM237" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN237" t="n">
+        <v>772034.26</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>772034.26</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT237" t="inlineStr"/>
+      <c r="AU237" t="inlineStr"/>
+      <c r="AV237" t="inlineStr"/>
+      <c r="AW237" t="inlineStr"/>
+      <c r="AX237" t="inlineStr">
+        <is>
+          <t>17/2024/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="AY237" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ237" t="inlineStr">
+        <is>
+          <t>TCL/017/2024/SMDHC/CPM - até julho/2026.</t>
+        </is>
+      </c>
+      <c r="BA237" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>772034.26</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>544</v>
+      </c>
+      <c r="D238" t="n">
+        <v>11776</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>6074202600000469</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>62812148000188</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>62812148 LUANA CARNEIRO DA FONSECA</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>2764</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2026</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA238" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB238" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC238" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>Aplicações Diretas</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>Material de Expediente</t>
+        </is>
+      </c>
+      <c r="AG238" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH238" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI238" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AJ238" t="inlineStr">
+        <is>
+          <t>Diversos Materiais de Expediente</t>
+        </is>
+      </c>
+      <c r="AK238" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL238" t="inlineStr">
+        <is>
+          <t>Material de Consumo</t>
+        </is>
+      </c>
+      <c r="AM238" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN238" t="n">
+        <v>784</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>784</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT238" t="inlineStr"/>
+      <c r="AU238" t="inlineStr"/>
+      <c r="AV238" t="inlineStr"/>
+      <c r="AW238" t="inlineStr"/>
+      <c r="AX238" t="inlineStr"/>
+      <c r="AY238" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="AZ238" t="inlineStr">
+        <is>
+          <t>Fornecimento de 200 (duzentas) unidades de  borrifadores de água com spray , que serão utilizados na divulgação do Protocolo Não Se Cale durante o evento Carnaval SP 2026 que será realizado entre os dias 07 a 22 de fevereiro de 2026.</t>
+        </is>
+      </c>
+      <c r="BA238" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>11110</v>
+      </c>
+      <c r="D239" t="n">
+        <v>11779</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>6074202000060606</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>59940080000108</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>CENTRO GASPAR GARCIA DE DIREITOS HUMANOS</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>10879</v>
+      </c>
+      <c r="L239" t="n">
+        <v>2021</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>4018</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>Assistência e Proteção Sociais</t>
+        </is>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>2431</t>
+        </is>
+      </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA239" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB239" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC239" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF239" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG239" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH239" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI239" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ239" t="inlineStr">
+        <is>
+          <t>Remuneração de Pessoal</t>
+        </is>
+      </c>
+      <c r="AK239" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL239" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM239" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN239" t="n">
+        <v>372361.16</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>372361.16</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT239" t="inlineStr"/>
+      <c r="AU239" t="inlineStr"/>
+      <c r="AV239" t="inlineStr"/>
+      <c r="AW239" t="inlineStr"/>
+      <c r="AX239" t="inlineStr">
+        <is>
+          <t>506/SMADS/2018</t>
+        </is>
+      </c>
+      <c r="AY239" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="AZ239" t="inlineStr">
+        <is>
+          <t>Termo de Colaboração nº TCL/506/2018/SMDHC/CPPSR - Exercício 2026 - Período de: JANEIRO/2026 a SETEMBRO/2026</t>
+        </is>
+      </c>
+      <c r="BA239" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>372361.16</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>11114</v>
+      </c>
+      <c r="D240" t="n">
+        <v>11780</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>6074202400022353</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>74087081000145</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>APOIOASSOCIACAO DE AUXILIO MUTUO DA REGIAO LESTE</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>10136</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA240" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB240" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC240" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG240" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH240" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI240" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ240" t="inlineStr">
+        <is>
+          <t>Remuneração de Pessoal</t>
+        </is>
+      </c>
+      <c r="AK240" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL240" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM240" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN240" t="n">
+        <v>1232314.18</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1232314.18</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT240" t="inlineStr"/>
+      <c r="AU240" t="inlineStr"/>
+      <c r="AV240" t="inlineStr"/>
+      <c r="AW240" t="inlineStr"/>
+      <c r="AX240" t="inlineStr">
+        <is>
+          <t>17/2024/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="AY240" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ240" t="inlineStr">
+        <is>
+          <t>TCL/017/2024/SMDHC/CPM - até julho/2026.</t>
+        </is>
+      </c>
+      <c r="BA240" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1232314.18</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>11142</v>
+      </c>
+      <c r="D241" t="n">
+        <v>11827</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>6074202400022329</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>02928443000172</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>CENTRO DE INTEGRACAO ASSISTENCIAL E PROFISSIONAL SAO PATRICIO CIAP SAO PATRICIO</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>9982</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA241" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB241" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC241" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF241" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG241" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH241" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ241" t="inlineStr">
+        <is>
+          <t>Outras Despesas</t>
+        </is>
+      </c>
+      <c r="AK241" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL241" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM241" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN241" t="n">
+        <v>615214.7</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>615214.7</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT241" t="inlineStr"/>
+      <c r="AU241" t="inlineStr"/>
+      <c r="AV241" t="inlineStr"/>
+      <c r="AW241" t="inlineStr"/>
+      <c r="AX241" t="inlineStr">
+        <is>
+          <t>15/2023/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="AY241" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ241" t="inlineStr">
+        <is>
+          <t>TCL/015/2024/SMDHC/CPM - até junho/2026.</t>
+        </is>
+      </c>
+      <c r="BA241" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>615214.7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>11142</v>
+      </c>
+      <c r="D242" t="n">
+        <v>11828</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>6074202400022329</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>02928443000172</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>CENTRO DE INTEGRACAO ASSISTENCIAL E PROFISSIONAL SAO PATRICIO CIAP SAO PATRICIO</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>9982</v>
+      </c>
+      <c r="L242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>6178</t>
+        </is>
+      </c>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA242" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB242" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC242" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF242" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG242" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH242" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI242" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ242" t="inlineStr">
+        <is>
+          <t>Remuneração de Pessoal</t>
+        </is>
+      </c>
+      <c r="AK242" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL242" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM242" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN242" t="n">
+        <v>1026649.43</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1026649.43</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT242" t="inlineStr"/>
+      <c r="AU242" t="inlineStr"/>
+      <c r="AV242" t="inlineStr"/>
+      <c r="AW242" t="inlineStr"/>
+      <c r="AX242" t="inlineStr">
+        <is>
+          <t>15/2023/SMDHC/CPM</t>
+        </is>
+      </c>
+      <c r="AY242" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="AZ242" t="inlineStr">
+        <is>
+          <t>TCL/015/2024/SMDHC/CPM - até junho.</t>
+        </is>
+      </c>
+      <c r="BA242" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1026649.43</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>11148</v>
+      </c>
+      <c r="D243" t="n">
+        <v>11829</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>6074202000060592</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>11861086000163</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO FRANCISCANA DE SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>7511</v>
+      </c>
+      <c r="L243" t="n">
+        <v>2021</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>4018</t>
+        </is>
+      </c>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>Assistência e Proteção Sociais</t>
+        </is>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>2431</t>
+        </is>
+      </c>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA243" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB243" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC243" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG243" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH243" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI243" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ243" t="inlineStr">
+        <is>
+          <t>Outras Despesas</t>
+        </is>
+      </c>
+      <c r="AK243" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL243" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM243" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN243" t="n">
+        <v>177614.92</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>177614.92</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT243" t="inlineStr"/>
+      <c r="AU243" t="inlineStr"/>
+      <c r="AV243" t="inlineStr"/>
+      <c r="AW243" t="inlineStr"/>
+      <c r="AX243" t="inlineStr">
+        <is>
+          <t>410/SMADS/2018</t>
+        </is>
+      </c>
+      <c r="AY243" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="AZ243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Termo de Colaboração nº TCL/410/2018/SMADS/CPPSR - Exercício 2026 - Período de: JANEIRO/2026 a AGOSTO/2026
+</t>
+        </is>
+      </c>
+      <c r="BA243" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>177614.92</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>11148</v>
+      </c>
+      <c r="D244" t="n">
+        <v>11833</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>6074202000060592</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>11861086000163</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>ASSOCIACAO FRANCISCANA DE SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>7511</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2021</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>4018</t>
+        </is>
+      </c>
+      <c r="V244" t="inlineStr">
+        <is>
+          <t>Assistência e Proteção Sociais</t>
+        </is>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>2431</t>
+        </is>
+      </c>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z244" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA244" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB244" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC244" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG244" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH244" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI244" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ244" t="inlineStr">
+        <is>
+          <t>Remuneração de Pessoal</t>
+        </is>
+      </c>
+      <c r="AK244" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL244" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM244" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN244" t="n">
+        <v>308604.45</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>308604.45</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT244" t="inlineStr"/>
+      <c r="AU244" t="inlineStr"/>
+      <c r="AV244" t="inlineStr"/>
+      <c r="AW244" t="inlineStr"/>
+      <c r="AX244" t="inlineStr">
+        <is>
+          <t>410/SMADS/2018</t>
+        </is>
+      </c>
+      <c r="AY244" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="AZ244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Termo de Colaboração nº TCL/410/2018/SMADS/CPPSR - Exercício 2026 - Período de: JANEIRO/2026 a AGOSTO/2026
+</t>
+        </is>
+      </c>
+      <c r="BA244" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>308604.45</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>11169</v>
+      </c>
+      <c r="D245" t="n">
+        <v>11867</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>6074202500075726</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>74261652000116</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>AMA COMERCIO E SERVICOS DE INSTALACOES DE GAS LTDA</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>2776</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2026</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>4025</t>
+        </is>
+      </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>Políticas para Mulheres</t>
+        </is>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação da Casa da Mulher Brasileira</t>
+        </is>
+      </c>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z245" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB245" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC245" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD245" t="inlineStr">
+        <is>
+          <t>Aplicações Diretas</t>
+        </is>
+      </c>
+      <c r="AE245" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF245" t="inlineStr">
+        <is>
+          <t>Gás e Outros Materiais Engarrafados</t>
+        </is>
+      </c>
+      <c r="AG245" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH245" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ245" t="inlineStr">
+        <is>
+          <t>Oxigênio Industrial, Acetileno e Outros Materiais</t>
+        </is>
+      </c>
+      <c r="AK245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL245" t="inlineStr">
+        <is>
+          <t>Material de Consumo</t>
+        </is>
+      </c>
+      <c r="AM245" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN245" t="n">
+        <v>11808</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>11808</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT245" t="inlineStr"/>
+      <c r="AU245" t="inlineStr"/>
+      <c r="AV245" t="inlineStr"/>
+      <c r="AW245" t="inlineStr"/>
+      <c r="AX245" t="inlineStr">
+        <is>
+          <t>314/SMDHC/2025</t>
+        </is>
+      </c>
+      <c r="AY245" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="AZ245" t="inlineStr">
+        <is>
+          <t>CMB - BOTIJÃO 45 KG (P-45)</t>
+        </is>
+      </c>
+      <c r="BA245" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>11181</v>
+      </c>
+      <c r="D246" t="n">
+        <v>11868</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>6074202400008326</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>03601723000134</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>INSTITUTO CLARET   SOLIDARIEDADE E DESENVOLVIMENTO HUMANO</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>9176</v>
+      </c>
+      <c r="L246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>4018</t>
+        </is>
+      </c>
+      <c r="V246" t="inlineStr">
+        <is>
+          <t>Assistência e Proteção Sociais</t>
+        </is>
+      </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>2431</t>
+        </is>
+      </c>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Equipamentos Públicos Voltados ao Atendimento</t>
+        </is>
+      </c>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z246" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA246" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB246" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC246" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="AD246" t="inlineStr">
+        <is>
+          <t>Transferências a Instituições Privadas sem Fins Lucrativos</t>
+        </is>
+      </c>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t>Serviços de Assistência Social</t>
+        </is>
+      </c>
+      <c r="AG246" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH246" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI246" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ246" t="inlineStr">
+        <is>
+          <t>Outras Despesas</t>
+        </is>
+      </c>
+      <c r="AK246" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AL246" t="inlineStr">
+        <is>
+          <t>Outros Serviços de Terceiros - Pessoa Jurídica</t>
+        </is>
+      </c>
+      <c r="AM246" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN246" t="n">
+        <v>2404922.99</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>2404922.99</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT246" t="inlineStr"/>
+      <c r="AU246" t="inlineStr"/>
+      <c r="AV246" t="inlineStr"/>
+      <c r="AW246" t="inlineStr"/>
+      <c r="AX246" t="inlineStr">
+        <is>
+          <t>12/2024/SMDHC/CPPSR</t>
+        </is>
+      </c>
+      <c r="AY246" t="inlineStr">
+        <is>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="AZ246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Termo de Colaboração nº TCL/012/2024/SMDHC/CPPSR - Exercício 2026 - Período de: JANEIRO/2026 a SETEMBRO/2026
+</t>
+        </is>
+      </c>
+      <c r="BA246" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>2404922.99</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>11180</v>
+      </c>
+      <c r="D247" t="n">
+        <v>11870</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>6074202500075726</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>74261652000116</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>AMA COMERCIO E SERVICOS DE INSTALACOES DE GAS LTDA</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>2776</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2026</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="V247" t="inlineStr">
+        <is>
+          <t>Segurança Alimentar e Nutricional</t>
+        </is>
+      </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Centro de Referência de Segurança Alimentar e</t>
+        </is>
+      </c>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z247" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA247" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB247" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC247" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD247" t="inlineStr">
+        <is>
+          <t>Aplicações Diretas</t>
+        </is>
+      </c>
+      <c r="AE247" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF247" t="inlineStr">
+        <is>
+          <t>Gás e Outros Materiais Engarrafados</t>
+        </is>
+      </c>
+      <c r="AG247" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH247" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ247" t="inlineStr">
+        <is>
+          <t>Oxigênio Industrial, Acetileno e Outros Materiais</t>
+        </is>
+      </c>
+      <c r="AK247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL247" t="inlineStr">
+        <is>
+          <t>Material de Consumo</t>
+        </is>
+      </c>
+      <c r="AM247" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN247" t="n">
+        <v>3936</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>3936</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT247" t="inlineStr"/>
+      <c r="AU247" t="inlineStr"/>
+      <c r="AV247" t="inlineStr"/>
+      <c r="AW247" t="inlineStr"/>
+      <c r="AX247" t="inlineStr">
+        <is>
+          <t>314/SMDHC/2025</t>
+        </is>
+      </c>
+      <c r="AY247" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="AZ247" t="inlineStr">
+        <is>
+          <t>BOTIJÃO 45 KG (P-45)</t>
+        </is>
+      </c>
+      <c r="BA247" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>PREFEITURA DO MUNICÍPIO DE SÃO PAULO</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>11180</v>
+      </c>
+      <c r="D248" t="n">
+        <v>11879</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>28/01/2026 00:00:00</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>6074202500075726</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>74261652000116</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>AMA COMERCIO E SERVICOS DE INSTALACOES DE GAS LTDA</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>2776</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2026</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>Secretaria Municipal de Direitos Humanos e Cidadania</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>Gabinete do Secretário</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Direitos da Cidadania</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>Direitos Individuais, Coletivos e Difusos</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>Segurança Alimentar e Nutricional</t>
+        </is>
+      </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>Manutenção e Operação de Centro de Referência de Segurança Alimentar e</t>
+        </is>
+      </c>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z248" t="inlineStr">
+        <is>
+          <t>Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AA248" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB248" t="inlineStr">
+        <is>
+          <t>Outras Despesas Correntes</t>
+        </is>
+      </c>
+      <c r="AC248" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="AD248" t="inlineStr">
+        <is>
+          <t>Aplicações Diretas</t>
+        </is>
+      </c>
+      <c r="AE248" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="AF248" t="inlineStr">
+        <is>
+          <t>Gás e Outros Materiais Engarrafados</t>
+        </is>
+      </c>
+      <c r="AG248" t="inlineStr">
+        <is>
+          <t>00.1.500.9001</t>
+        </is>
+      </c>
+      <c r="AH248" t="inlineStr">
+        <is>
+          <t>Recursos não vinculados de Impostos</t>
+        </is>
+      </c>
+      <c r="AI248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ248" t="inlineStr">
+        <is>
+          <t>Oxigênio Industrial, Acetileno e Outros Materiais</t>
+        </is>
+      </c>
+      <c r="AK248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL248" t="inlineStr">
+        <is>
+          <t>Material de Consumo</t>
+        </is>
+      </c>
+      <c r="AM248" t="inlineStr">
+        <is>
+          <t>34.10.14.422.4025.6178.33503900</t>
+        </is>
+      </c>
+      <c r="AN248" t="n">
+        <v>6558</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>6558</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT248" t="inlineStr"/>
+      <c r="AU248" t="inlineStr"/>
+      <c r="AV248" t="inlineStr"/>
+      <c r="AW248" t="inlineStr"/>
+      <c r="AX248" t="inlineStr">
+        <is>
+          <t>314/SMDHC/2025</t>
+        </is>
+      </c>
+      <c r="AY248" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="AZ248" t="inlineStr">
+        <is>
+          <t>CRESAN VILA MARIA - BOTIJÃO 45 KG (P-45)</t>
+        </is>
+      </c>
+      <c r="BA248" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
